--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.34 [0.23 - 0.45]</t>
+          <t>0.34 [0.24 - 0.45]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78 [0.64 - 0.89]</t>
+          <t>0.78 [0.66 - 0.89]</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.68 [0.6 - 0.75]</t>
+          <t>0.68 [0.61 - 0.75]</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.37 [0.26 - 0.47]</t>
+          <t>0.37 [0.27 - 0.47]</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.38 [0.27 - 0.48]</t>
+          <t>0.38 [0.27 - 0.47]</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.69 [0.62 - 0.75]</t>
+          <t>0.69 [0.61 - 0.75]</t>
         </is>
       </c>
     </row>
